--- a/testData/loginTestData.xlsx
+++ b/testData/loginTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">UserId</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">invalid</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Consumed</t>
   </si>
 </sst>
 </file>
@@ -329,7 +323,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,7 +347,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,7 +358,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
